--- a/week-8/Exercises/8-5-B-stats-review-exercises.xlsx
+++ b/week-8/Exercises/8-5-B-stats-review-exercises.xlsx
@@ -8,15 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Documents\GitHub\data-analytics-lectures\week-8\Exercises\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{ECFAF0EF-3F2F-4062-8778-654E7A047504}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{23E1A31D-BCD3-45FB-911D-3EE255DF74A5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="30105" yWindow="1425" windowWidth="21600" windowHeight="13185" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="pima_indians_diabetes" sheetId="1" r:id="rId1"/>
+    <sheet name="diabetes" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">pima_indians_diabetes!$B$1:$E$729</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">diabetes!$B$1:$E$729</definedName>
   </definedNames>
   <calcPr calcId="0"/>
 </workbook>
